--- a/Documentation/08 Team Roles Evidence/Customer On Site/Backlog user stories.xlsx
+++ b/Documentation/08 Team Roles Evidence/Customer On Site/Backlog user stories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shire\Desktop\Desktop\Programming\Quartile-3\den-doelder-project\Documentation\08 Team Roles Evidence\Customer On Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735DBCF-CE5E-490C-8BB0-B25483D9FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CAF27-00E8-4F70-BCD3-EBA86841AE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="160">
   <si>
     <t>Backlog Table</t>
   </si>
@@ -392,9 +392,6 @@
     <t>Requierments in Report</t>
   </si>
   <si>
-    <t>Name of group member</t>
-  </si>
-  <si>
     <t>Same as Head Operator (same requierments)</t>
   </si>
   <si>
@@ -495,6 +492,27 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>Name of group member (report)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Member </t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t>Nick + Shirel</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Noah</t>
   </si>
 </sst>
 </file>
@@ -517,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,42 +604,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFCCFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF99FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -810,13 +840,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -824,20 +887,20 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -845,13 +908,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -861,42 +948,157 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -905,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,109 +1163,229 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,6 +1396,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF66FFCC"/>
+      <color rgb="FF99FF66"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFCCFF66"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF6699"/>
     </mruColors>
@@ -1405,15 +1732,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -1781,1488 +2108,1688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D48F4-EA9D-44D8-B21E-96C648C4D3F3}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.21875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="77.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="14"/>
+    <col min="3" max="4" width="16.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.21875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="77.109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="32">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="34">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="34">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="35">
+        <v>5</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="34">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="34">
+        <v>7</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="34">
+        <v>8</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="34">
+        <v>9</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="34">
+        <v>10</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="34">
+        <v>11</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="34">
+        <v>12</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="34">
+        <v>13</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="34">
+        <v>14</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="32">
+        <v>15</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="70">
+        <v>16</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="32">
+        <v>17</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="70">
+        <v>18</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="70">
+        <v>19</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="32">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="32">
+        <v>21</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="76">
+        <v>22</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48"/>
+      <c r="B26" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="76">
+        <v>23</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32">
+        <v>24</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31">
+        <v>25</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="31">
+        <v>26</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="31">
+        <v>27</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30">
+        <v>28</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="31">
+        <v>29</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30">
+        <v>30</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="31">
+        <v>31</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30">
+        <v>32</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30">
+        <v>33</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="70">
+        <v>34</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="31">
+        <v>35</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="76">
+        <v>36</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="77"/>
+      <c r="K39" s="78"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="76">
+        <v>37</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="78"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="80">
+        <v>38</v>
+      </c>
+      <c r="F41" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="81"/>
+      <c r="K41" s="82"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="48"/>
+      <c r="B42" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="70">
+        <v>39</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="71"/>
+      <c r="K42" s="72"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="70">
+        <v>40</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="71"/>
+      <c r="K43" s="72"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="48"/>
+      <c r="B44" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="70">
+        <v>41</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="71"/>
+      <c r="K44" s="72"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="70">
+        <v>42</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="71"/>
+      <c r="K45" s="72"/>
+    </row>
+    <row r="46" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="80">
+        <v>43</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="81"/>
+      <c r="K46" s="82"/>
+    </row>
+    <row r="47" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="80">
+        <v>44</v>
+      </c>
+      <c r="F47" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="81"/>
+      <c r="K47" s="82"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B48" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="83"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85">
+        <v>45</v>
+      </c>
+      <c r="F48" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="86"/>
+      <c r="K48" s="88"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="48"/>
+      <c r="B49" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85">
+        <v>46</v>
+      </c>
+      <c r="F49" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="86"/>
+      <c r="K49" s="88"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
+      <c r="B50" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="85">
+        <v>47</v>
+      </c>
+      <c r="F50" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="86"/>
+      <c r="K50" s="88"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85">
+        <v>48</v>
+      </c>
+      <c r="F51" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="86"/>
+      <c r="K51" s="88"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
+      <c r="B52" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85">
+        <v>49</v>
+      </c>
+      <c r="F52" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" s="86"/>
+      <c r="K52" s="88"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+      <c r="B53" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="83"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="85">
+        <v>50</v>
+      </c>
+      <c r="F53" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J53" s="86"/>
+      <c r="K53" s="88"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
+      <c r="B54" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="85">
+        <v>51</v>
+      </c>
+      <c r="F54" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="86"/>
+      <c r="K54" s="88"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
+      <c r="B55" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85">
+        <v>52</v>
+      </c>
+      <c r="F55" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J55" s="86"/>
+      <c r="K55" s="88"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85">
+        <v>53</v>
+      </c>
+      <c r="F56" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="86"/>
+      <c r="K56" s="88"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+      <c r="B57" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="83"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="85">
+        <v>54</v>
+      </c>
+      <c r="F57" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" s="86"/>
+      <c r="K57" s="88"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85">
+        <v>55</v>
+      </c>
+      <c r="F58" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" s="86"/>
+      <c r="K58" s="88"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
+      <c r="B59" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85">
+        <v>56</v>
+      </c>
+      <c r="F59" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J59" s="86"/>
+      <c r="K59" s="88"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="48"/>
+      <c r="B60" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85">
+        <v>57</v>
+      </c>
+      <c r="F60" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J60" s="86"/>
+      <c r="K60" s="88"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="48"/>
+      <c r="B61" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85">
+        <v>58</v>
+      </c>
+      <c r="F61" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G61" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61" s="86"/>
+      <c r="K61" s="88"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="85">
         <v>59</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F62" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" s="86"/>
+      <c r="K62" s="88"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="49"/>
+      <c r="B63" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="91">
         <v>60</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="19">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="19">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="19">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="19">
-        <v>7</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="19">
-        <v>8</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="19">
-        <v>9</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="19">
-        <v>10</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="19">
-        <v>11</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="19">
-        <v>12</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="19">
-        <v>13</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="19">
-        <v>14</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="19">
-        <v>15</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="19">
-        <v>16</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="19">
-        <v>17</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="19">
-        <v>18</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="19">
-        <v>19</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="19">
-        <v>20</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="19">
-        <v>21</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="19">
-        <v>22</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="19">
-        <v>23</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="19">
-        <v>24</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="19">
-        <v>25</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="19">
-        <v>26</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="19">
-        <v>27</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="19">
-        <v>28</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="19">
-        <v>29</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="19">
-        <v>30</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="19">
-        <v>31</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="19">
-        <v>32</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="19">
-        <v>33</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="26" t="s">
+      <c r="F63" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="19">
-        <v>34</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="19">
-        <v>35</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="26" t="s">
+      <c r="H63" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="19">
-        <v>36</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="19">
-        <v>37</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="19">
-        <v>38</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="19">
-        <v>39</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="19">
-        <v>40</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="19">
-        <v>41</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="19">
-        <v>42</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="19">
-        <v>43</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="19">
-        <v>44</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="19">
-        <v>45</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="19">
-        <v>46</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="19">
-        <v>47</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="19">
-        <v>48</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="19">
-        <v>49</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="19">
-        <v>50</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="19">
-        <v>51</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="19">
-        <v>52</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="19">
-        <v>53</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="19">
-        <v>54</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="19">
-        <v>55</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="19">
-        <v>56</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="19">
-        <v>57</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="19">
-        <v>58</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="19">
-        <v>59</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="19">
-        <v>60</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="E1:K2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A48:A63"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A45:A47"/>
@@ -3275,12 +3802,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056F743D5970CDD49BC922CD0800EEC62" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="481c167398e8f71a1003aa77f49c14e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b9dd933c-8a50-4388-9501-24cd2e1f3728" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfcaaf82c5916d475fc2cb143c012c2a" ns2:_="">
     <xsd:import namespace="b9dd933c-8a50-4388-9501-24cd2e1f3728"/>
@@ -3458,7 +3979,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3467,23 +3988,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0B64640-74D0-4968-8D5D-0EA80421A536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b9dd933c-8a50-4388-9501-24cd2e1f3728"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D43198-6ECD-42FD-9E3B-B5B586D3256D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3501,10 +4012,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF65F6F-23E1-4B10-A55F-859D1BFD29C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0B64640-74D0-4968-8D5D-0EA80421A536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b9dd933c-8a50-4388-9501-24cd2e1f3728"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>